--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_dyn_gen_pf_sc_results_2_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_dyn_gen_pf_sc_results_2_bus_resonant.xlsx
@@ -755,16 +755,16 @@
         <v>1.070094227532346</v>
       </c>
       <c r="O2">
-        <v>0.9380319009574459</v>
+        <v>0.938031900957445</v>
       </c>
       <c r="P2">
         <v>1.053494350468705</v>
       </c>
       <c r="Q2">
-        <v>25.98965116739707</v>
+        <v>25.98965116739706</v>
       </c>
       <c r="R2">
-        <v>-91.13019952201601</v>
+        <v>-91.13019952201603</v>
       </c>
       <c r="S2">
         <v>153.5693903185486</v>
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.031611214669994</v>
+        <v>1.031611214669993</v>
       </c>
       <c r="O3">
-        <v>0.2917056037512945</v>
+        <v>0.291705603751292</v>
       </c>
       <c r="P3">
-        <v>0.8906876332644389</v>
+        <v>0.8906876332644372</v>
       </c>
       <c r="Q3">
-        <v>7.091324389062537</v>
+        <v>7.09132438906246</v>
       </c>
       <c r="R3">
-        <v>-119.1713773550799</v>
+        <v>-119.1713773550804</v>
       </c>
       <c r="S3">
-        <v>171.7794727726615</v>
+        <v>171.7794727726616</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -837,55 +837,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.709154423937069</v>
+        <v>3.709154423937083</v>
       </c>
       <c r="D4">
-        <v>3.709154423937069</v>
+        <v>3.709154423937083</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.82962610251916</v>
+        <v>42.82962610251932</v>
       </c>
       <c r="G4">
-        <v>42.82962610251916</v>
+        <v>42.82962610251932</v>
       </c>
       <c r="H4">
-        <v>3.710336306063329</v>
+        <v>0.6936998532809447</v>
       </c>
       <c r="I4">
-        <v>1.927279909883212</v>
+        <v>-1166.453439823878</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570835</v>
+        <v>0.6277319164170524</v>
       </c>
       <c r="K4">
-        <v>2.898438697948319</v>
+        <v>2.898438698063386</v>
       </c>
       <c r="L4">
-        <v>0.62773191636387</v>
+        <v>0.6277319163554608</v>
       </c>
       <c r="M4">
-        <v>2.898438697960017</v>
+        <v>2.898438697974138</v>
       </c>
       <c r="N4">
-        <v>0.9526279648032097</v>
+        <v>0.9526279648032094</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.952627964804756</v>
+        <v>0.952627964804755</v>
       </c>
       <c r="Q4">
-        <v>-1.252526497616222E-11</v>
+        <v>-1.263596013510463E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999811</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647942861</v>
+        <v>0.9526279647942857</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.95262796481368</v>
+        <v>0.952627964813679</v>
       </c>
       <c r="Q5">
-        <v>4.605107299026295E-10</v>
+        <v>4.603961942809936E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999995311</v>
+        <v>179.9999999995313</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647942861</v>
+        <v>0.9526279647942856</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648136798</v>
+        <v>0.9526279648136788</v>
       </c>
       <c r="Q6">
-        <v>4.605030469222368E-10</v>
+        <v>4.603950607216524E-10</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999995311</v>
+        <v>179.9999999995313</v>
       </c>
     </row>
   </sheetData>
@@ -1122,16 +1122,16 @@
         <v>1.09687854193859</v>
       </c>
       <c r="O2">
-        <v>1.029837663667628</v>
+        <v>1.029837663667627</v>
       </c>
       <c r="P2">
         <v>1.068709665745342</v>
       </c>
       <c r="Q2">
-        <v>27.98323699101546</v>
+        <v>27.98323699101545</v>
       </c>
       <c r="R2">
-        <v>-91.78162348160745</v>
+        <v>-91.78162348160747</v>
       </c>
       <c r="S2">
         <v>151.2113112851477</v>
@@ -1181,16 +1181,16 @@
         <v>1.109634423210918</v>
       </c>
       <c r="O3">
-        <v>0.761777901871072</v>
+        <v>0.7617779018710716</v>
       </c>
       <c r="P3">
-        <v>0.9348070984869526</v>
+        <v>0.9348070984869519</v>
       </c>
       <c r="Q3">
-        <v>19.43181595267036</v>
+        <v>19.43181595267035</v>
       </c>
       <c r="R3">
-        <v>-104.2565908665021</v>
+        <v>-104.2565908665022</v>
       </c>
       <c r="S3">
         <v>156.7400468039737</v>
@@ -1204,52 +1204,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675508</v>
       </c>
       <c r="D4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675508</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744281</v>
       </c>
       <c r="G4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744281</v>
       </c>
       <c r="H4">
-        <v>3.710336306063329</v>
+        <v>0.6936998532809447</v>
       </c>
       <c r="I4">
-        <v>1.927279909883212</v>
+        <v>-1166.453439823878</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570835</v>
+        <v>0.6277319164170524</v>
       </c>
       <c r="K4">
-        <v>2.898438697948319</v>
+        <v>2.898438698063386</v>
       </c>
       <c r="L4">
-        <v>0.62773191636387</v>
+        <v>0.6277319163554608</v>
       </c>
       <c r="M4">
-        <v>2.898438697960017</v>
+        <v>2.898438697974138</v>
       </c>
       <c r="N4">
-        <v>1.075852895209833</v>
+        <v>1.075852895209832</v>
       </c>
       <c r="O4">
-        <v>0.6233452632551815</v>
+        <v>0.6233452632551807</v>
       </c>
       <c r="P4">
-        <v>0.922941106001154</v>
+        <v>0.9229411060011531</v>
       </c>
       <c r="Q4">
-        <v>16.25665454943074</v>
+        <v>16.25665454943073</v>
       </c>
       <c r="R4">
-        <v>-104.9129785376843</v>
+        <v>-104.9129785376844</v>
       </c>
       <c r="S4">
         <v>160.9543898286496</v>
@@ -1299,16 +1299,16 @@
         <v>1.075852895205487</v>
       </c>
       <c r="O5">
-        <v>0.6233452632568747</v>
+        <v>0.623345263256874</v>
       </c>
       <c r="P5">
-        <v>0.9229411060067908</v>
+        <v>0.92294110600679</v>
       </c>
       <c r="Q5">
-        <v>16.25665454962341</v>
+        <v>16.25665454962339</v>
       </c>
       <c r="R5">
-        <v>-104.9129785366566</v>
+        <v>-104.9129785366567</v>
       </c>
       <c r="S5">
         <v>160.9543898286222</v>
@@ -1358,16 +1358,16 @@
         <v>1.075852895205487</v>
       </c>
       <c r="O6">
-        <v>0.6233452632568747</v>
+        <v>0.623345263256874</v>
       </c>
       <c r="P6">
-        <v>0.9229411060067908</v>
+        <v>0.9229411060067899</v>
       </c>
       <c r="Q6">
-        <v>16.25665454962341</v>
+        <v>16.25665454962339</v>
       </c>
       <c r="R6">
-        <v>-104.9129785366566</v>
+        <v>-104.9129785366567</v>
       </c>
       <c r="S6">
         <v>160.9543898286222</v>
@@ -1489,16 +1489,16 @@
         <v>1.09687854193859</v>
       </c>
       <c r="O2">
-        <v>1.029837663667628</v>
+        <v>1.029837663667627</v>
       </c>
       <c r="P2">
         <v>1.068709665745342</v>
       </c>
       <c r="Q2">
-        <v>27.98323699101546</v>
+        <v>27.98323699101545</v>
       </c>
       <c r="R2">
-        <v>-91.78162348160745</v>
+        <v>-91.78162348160747</v>
       </c>
       <c r="S2">
         <v>151.2113112851477</v>
@@ -1548,16 +1548,16 @@
         <v>1.109634423210918</v>
       </c>
       <c r="O3">
-        <v>0.761777901871072</v>
+        <v>0.7617779018710716</v>
       </c>
       <c r="P3">
-        <v>0.9348070984869526</v>
+        <v>0.9348070984869519</v>
       </c>
       <c r="Q3">
-        <v>19.43181595267036</v>
+        <v>19.43181595267035</v>
       </c>
       <c r="R3">
-        <v>-104.2565908665021</v>
+        <v>-104.2565908665022</v>
       </c>
       <c r="S3">
         <v>156.7400468039737</v>
@@ -1571,52 +1571,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675508</v>
       </c>
       <c r="D4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675508</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744281</v>
       </c>
       <c r="G4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744281</v>
       </c>
       <c r="H4">
-        <v>3.710336306063329</v>
+        <v>0.6936998532809447</v>
       </c>
       <c r="I4">
-        <v>1.927279909883212</v>
+        <v>-1166.453439823878</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570835</v>
+        <v>0.6277319164170524</v>
       </c>
       <c r="K4">
-        <v>2.898438697948319</v>
+        <v>2.898438698063386</v>
       </c>
       <c r="L4">
-        <v>0.62773191636387</v>
+        <v>0.6277319163554608</v>
       </c>
       <c r="M4">
-        <v>2.898438697960017</v>
+        <v>2.898438697974138</v>
       </c>
       <c r="N4">
-        <v>1.075852895209833</v>
+        <v>1.075852895209832</v>
       </c>
       <c r="O4">
-        <v>0.6233452632551815</v>
+        <v>0.6233452632551807</v>
       </c>
       <c r="P4">
-        <v>0.922941106001154</v>
+        <v>0.9229411060011531</v>
       </c>
       <c r="Q4">
-        <v>16.25665454943074</v>
+        <v>16.25665454943073</v>
       </c>
       <c r="R4">
-        <v>-104.9129785376843</v>
+        <v>-104.9129785376844</v>
       </c>
       <c r="S4">
         <v>160.9543898286496</v>
@@ -1666,16 +1666,16 @@
         <v>1.075852895205487</v>
       </c>
       <c r="O5">
-        <v>0.6233452632568747</v>
+        <v>0.623345263256874</v>
       </c>
       <c r="P5">
-        <v>0.9229411060067908</v>
+        <v>0.92294110600679</v>
       </c>
       <c r="Q5">
-        <v>16.25665454962341</v>
+        <v>16.25665454962339</v>
       </c>
       <c r="R5">
-        <v>-104.9129785366566</v>
+        <v>-104.9129785366567</v>
       </c>
       <c r="S5">
         <v>160.9543898286222</v>
@@ -1725,16 +1725,16 @@
         <v>1.075852895205487</v>
       </c>
       <c r="O6">
-        <v>0.6233452632568747</v>
+        <v>0.623345263256874</v>
       </c>
       <c r="P6">
-        <v>0.9229411060067908</v>
+        <v>0.9229411060067899</v>
       </c>
       <c r="Q6">
-        <v>16.25665454962341</v>
+        <v>16.25665454962339</v>
       </c>
       <c r="R6">
-        <v>-104.9129785366566</v>
+        <v>-104.9129785366567</v>
       </c>
       <c r="S6">
         <v>160.9543898286222</v>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9821968591989457</v>
+        <v>0.9821968591989461</v>
       </c>
       <c r="O2">
-        <v>0.850004952541402</v>
+        <v>0.8500049525413998</v>
       </c>
       <c r="P2">
-        <v>0.9468598309457216</v>
+        <v>0.9468598309457205</v>
       </c>
       <c r="Q2">
-        <v>25.60992326808852</v>
+        <v>25.60992326808844</v>
       </c>
       <c r="R2">
-        <v>-92.65381631331513</v>
+        <v>-92.65381631331526</v>
       </c>
       <c r="S2">
-        <v>153.3606354236809</v>
+        <v>153.360635423681</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9900703401370796</v>
+        <v>0.9900703401370833</v>
       </c>
       <c r="O3">
-        <v>0.3617201835030111</v>
+        <v>0.3617201835030088</v>
       </c>
       <c r="P3">
-        <v>0.7649715466411122</v>
+        <v>0.7649715466411068</v>
       </c>
       <c r="Q3">
-        <v>8.15088868427447</v>
+        <v>8.150888684274141</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241894</v>
+        <v>-129.0915432241915</v>
       </c>
       <c r="S3">
-        <v>169.4262793833646</v>
+        <v>169.4262793833649</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1938,55 +1938,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.119085825515528</v>
+        <v>3.119085825515579</v>
       </c>
       <c r="D4">
-        <v>3.119085825515528</v>
+        <v>3.119085825515579</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.01610081973872</v>
+        <v>36.01610081973931</v>
       </c>
       <c r="G4">
-        <v>36.01610081973872</v>
+        <v>36.01610081973931</v>
       </c>
       <c r="H4">
-        <v>7.123704848942343</v>
+        <v>1.331747527271622</v>
       </c>
       <c r="I4">
-        <v>1.899834772653904</v>
+        <v>-1166.449803468124</v>
       </c>
       <c r="J4">
-        <v>1.11375188024611</v>
+        <v>1.113751880306457</v>
       </c>
       <c r="K4">
-        <v>3.006397543768157</v>
+        <v>3.006397543883271</v>
       </c>
       <c r="L4">
-        <v>1.113751880233069</v>
+        <v>1.113751880225838</v>
       </c>
       <c r="M4">
-        <v>3.006397543745586</v>
+        <v>3.00639754375882</v>
       </c>
       <c r="N4">
-        <v>0.8660254037880063</v>
+        <v>0.8660254037880097</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254037883351</v>
+        <v>0.8660254037883316</v>
       </c>
       <c r="Q4">
-        <v>1.723373087200846E-10</v>
+        <v>1.717907355070478E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999998195</v>
+        <v>179.99999999982</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037798938</v>
+        <v>0.8660254037798973</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037964478</v>
+        <v>0.8660254037964441</v>
       </c>
       <c r="Q5">
-        <v>1.080562449541818E-09</v>
+        <v>1.080026777352085E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999989112</v>
+        <v>179.9999999989118</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037798938</v>
+        <v>0.8660254037798973</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254037964478</v>
+        <v>0.8660254037964441</v>
       </c>
       <c r="Q6">
-        <v>1.080563594063466E-09</v>
+        <v>1.080027118961711E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999989112</v>
+        <v>179.9999999989118</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9821968591989457</v>
+        <v>0.9821968591989461</v>
       </c>
       <c r="O2">
-        <v>0.850004952541402</v>
+        <v>0.8500049525413998</v>
       </c>
       <c r="P2">
-        <v>0.9468598309457216</v>
+        <v>0.9468598309457205</v>
       </c>
       <c r="Q2">
-        <v>25.60992326808852</v>
+        <v>25.60992326808844</v>
       </c>
       <c r="R2">
-        <v>-92.65381631331513</v>
+        <v>-92.65381631331526</v>
       </c>
       <c r="S2">
-        <v>153.3606354236809</v>
+        <v>153.360635423681</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9900703401370796</v>
+        <v>0.9900703401370833</v>
       </c>
       <c r="O3">
-        <v>0.3617201835030111</v>
+        <v>0.3617201835030088</v>
       </c>
       <c r="P3">
-        <v>0.7649715466411122</v>
+        <v>0.7649715466411068</v>
       </c>
       <c r="Q3">
-        <v>8.15088868427447</v>
+        <v>8.150888684274141</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241894</v>
+        <v>-129.0915432241915</v>
       </c>
       <c r="S3">
-        <v>169.4262793833646</v>
+        <v>169.4262793833649</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2305,55 +2305,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.119085825515528</v>
+        <v>3.119085825515579</v>
       </c>
       <c r="D4">
-        <v>3.119085825515528</v>
+        <v>3.119085825515579</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.01610081973872</v>
+        <v>36.01610081973931</v>
       </c>
       <c r="G4">
-        <v>36.01610081973872</v>
+        <v>36.01610081973931</v>
       </c>
       <c r="H4">
-        <v>7.123704848942343</v>
+        <v>1.331747527271622</v>
       </c>
       <c r="I4">
-        <v>1.899834772653904</v>
+        <v>-1166.449803468124</v>
       </c>
       <c r="J4">
-        <v>1.11375188024611</v>
+        <v>1.113751880306457</v>
       </c>
       <c r="K4">
-        <v>3.006397543768157</v>
+        <v>3.006397543883271</v>
       </c>
       <c r="L4">
-        <v>1.113751880233069</v>
+        <v>1.113751880225838</v>
       </c>
       <c r="M4">
-        <v>3.006397543745586</v>
+        <v>3.00639754375882</v>
       </c>
       <c r="N4">
-        <v>0.8660254037880063</v>
+        <v>0.8660254037880097</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254037883351</v>
+        <v>0.8660254037883316</v>
       </c>
       <c r="Q4">
-        <v>1.723373087200846E-10</v>
+        <v>1.717907355070478E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999998195</v>
+        <v>179.99999999982</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037798938</v>
+        <v>0.8660254037798973</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037964478</v>
+        <v>0.8660254037964441</v>
       </c>
       <c r="Q5">
-        <v>1.080562449541818E-09</v>
+        <v>1.080026777352085E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999989112</v>
+        <v>179.9999999989118</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037798938</v>
+        <v>0.8660254037798973</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254037964478</v>
+        <v>0.8660254037964441</v>
       </c>
       <c r="Q6">
-        <v>1.080563594063466E-09</v>
+        <v>1.080027118961711E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999989112</v>
+        <v>179.9999999989118</v>
       </c>
     </row>
   </sheetData>
@@ -2587,19 +2587,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9991077190359253</v>
+        <v>0.9991077190359257</v>
       </c>
       <c r="O2">
-        <v>0.9333641900095898</v>
+        <v>0.9333641900095896</v>
       </c>
       <c r="P2">
-        <v>0.9681777323222122</v>
+        <v>0.9681777323222117</v>
       </c>
       <c r="Q2">
-        <v>27.82469744524451</v>
+        <v>27.82469744524448</v>
       </c>
       <c r="R2">
-        <v>-92.15705182751171</v>
+        <v>-92.15705182751175</v>
       </c>
       <c r="S2">
         <v>151.2048467246548</v>
@@ -2646,19 +2646,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.018434506766489</v>
+        <v>1.01843450676649</v>
       </c>
       <c r="O3">
-        <v>0.7086876959566593</v>
+        <v>0.7086876959566587</v>
       </c>
       <c r="P3">
-        <v>0.8449321159941326</v>
+        <v>0.844932115994131</v>
       </c>
       <c r="Q3">
-        <v>19.61176266474868</v>
+        <v>19.61176266474861</v>
       </c>
       <c r="R3">
-        <v>-105.2709110729077</v>
+        <v>-105.270911072908</v>
       </c>
       <c r="S3">
         <v>156.1359474819764</v>
@@ -2672,52 +2672,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.518298439092604</v>
+        <v>1.518298439092615</v>
       </c>
       <c r="D4">
-        <v>1.518298439092604</v>
+        <v>1.518298439092615</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.53180025040607</v>
+        <v>17.5318002504062</v>
       </c>
       <c r="G4">
-        <v>17.53180025040607</v>
+        <v>17.5318002504062</v>
       </c>
       <c r="H4">
-        <v>7.123704848942343</v>
+        <v>1.331747527271622</v>
       </c>
       <c r="I4">
-        <v>1.899834772653904</v>
+        <v>-1166.449803468124</v>
       </c>
       <c r="J4">
-        <v>1.11375188024611</v>
+        <v>1.113751880306457</v>
       </c>
       <c r="K4">
-        <v>3.006397543768157</v>
+        <v>3.006397543883271</v>
       </c>
       <c r="L4">
-        <v>1.113751880233069</v>
+        <v>1.113751880225838</v>
       </c>
       <c r="M4">
-        <v>3.006397543745586</v>
+        <v>3.00639754375882</v>
       </c>
       <c r="N4">
-        <v>0.9573399675119608</v>
+        <v>0.957339967511962</v>
       </c>
       <c r="O4">
-        <v>0.5367995610775458</v>
+        <v>0.5367995610775438</v>
       </c>
       <c r="P4">
-        <v>0.8529812840863316</v>
+        <v>0.8529812840863298</v>
       </c>
       <c r="Q4">
-        <v>15.93288697155593</v>
+        <v>15.93288697155582</v>
       </c>
       <c r="R4">
-        <v>-101.7238138495564</v>
+        <v>-101.7238138495568</v>
       </c>
       <c r="S4">
         <v>162.0554462537875</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9573399675083651</v>
+        <v>0.9573399675083665</v>
       </c>
       <c r="O5">
-        <v>0.5367995610863937</v>
+        <v>0.5367995610863918</v>
       </c>
       <c r="P5">
-        <v>0.8529812840931513</v>
+        <v>0.8529812840931495</v>
       </c>
       <c r="Q5">
-        <v>15.93288697196763</v>
+        <v>15.93288697196753</v>
       </c>
       <c r="R5">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481953</v>
       </c>
       <c r="S5">
         <v>162.0554462535385</v>
@@ -2823,19 +2823,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9573399675083651</v>
+        <v>0.9573399675083665</v>
       </c>
       <c r="O6">
-        <v>0.5367995610863938</v>
+        <v>0.5367995610863918</v>
       </c>
       <c r="P6">
-        <v>0.8529812840931514</v>
+        <v>0.8529812840931494</v>
       </c>
       <c r="Q6">
-        <v>15.93288697196764</v>
+        <v>15.93288697196753</v>
       </c>
       <c r="R6">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481953</v>
       </c>
       <c r="S6">
         <v>162.0554462535385</v>
@@ -2954,19 +2954,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9991077190359253</v>
+        <v>0.9991077190359257</v>
       </c>
       <c r="O2">
-        <v>0.9333641900095898</v>
+        <v>0.9333641900095896</v>
       </c>
       <c r="P2">
-        <v>0.9681777323222122</v>
+        <v>0.9681777323222117</v>
       </c>
       <c r="Q2">
-        <v>27.82469744524451</v>
+        <v>27.82469744524448</v>
       </c>
       <c r="R2">
-        <v>-92.15705182751171</v>
+        <v>-92.15705182751175</v>
       </c>
       <c r="S2">
         <v>151.2048467246548</v>
@@ -3013,19 +3013,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.018434506766489</v>
+        <v>1.01843450676649</v>
       </c>
       <c r="O3">
-        <v>0.7086876959566593</v>
+        <v>0.7086876959566587</v>
       </c>
       <c r="P3">
-        <v>0.8449321159941326</v>
+        <v>0.844932115994131</v>
       </c>
       <c r="Q3">
-        <v>19.61176266474868</v>
+        <v>19.61176266474861</v>
       </c>
       <c r="R3">
-        <v>-105.2709110729077</v>
+        <v>-105.270911072908</v>
       </c>
       <c r="S3">
         <v>156.1359474819764</v>
@@ -3039,52 +3039,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.518298439092604</v>
+        <v>1.518298439092615</v>
       </c>
       <c r="D4">
-        <v>1.518298439092604</v>
+        <v>1.518298439092615</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.53180025040607</v>
+        <v>17.5318002504062</v>
       </c>
       <c r="G4">
-        <v>17.53180025040607</v>
+        <v>17.5318002504062</v>
       </c>
       <c r="H4">
-        <v>7.123704848942343</v>
+        <v>1.331747527271622</v>
       </c>
       <c r="I4">
-        <v>1.899834772653904</v>
+        <v>-1166.449803468124</v>
       </c>
       <c r="J4">
-        <v>1.11375188024611</v>
+        <v>1.113751880306457</v>
       </c>
       <c r="K4">
-        <v>3.006397543768157</v>
+        <v>3.006397543883271</v>
       </c>
       <c r="L4">
-        <v>1.113751880233069</v>
+        <v>1.113751880225838</v>
       </c>
       <c r="M4">
-        <v>3.006397543745586</v>
+        <v>3.00639754375882</v>
       </c>
       <c r="N4">
-        <v>0.9573399675119608</v>
+        <v>0.957339967511962</v>
       </c>
       <c r="O4">
-        <v>0.5367995610775458</v>
+        <v>0.5367995610775438</v>
       </c>
       <c r="P4">
-        <v>0.8529812840863316</v>
+        <v>0.8529812840863298</v>
       </c>
       <c r="Q4">
-        <v>15.93288697155593</v>
+        <v>15.93288697155582</v>
       </c>
       <c r="R4">
-        <v>-101.7238138495564</v>
+        <v>-101.7238138495568</v>
       </c>
       <c r="S4">
         <v>162.0554462537875</v>
@@ -3131,19 +3131,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9573399675083651</v>
+        <v>0.9573399675083665</v>
       </c>
       <c r="O5">
-        <v>0.5367995610863937</v>
+        <v>0.5367995610863918</v>
       </c>
       <c r="P5">
-        <v>0.8529812840931513</v>
+        <v>0.8529812840931495</v>
       </c>
       <c r="Q5">
-        <v>15.93288697196763</v>
+        <v>15.93288697196753</v>
       </c>
       <c r="R5">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481953</v>
       </c>
       <c r="S5">
         <v>162.0554462535385</v>
@@ -3190,19 +3190,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9573399675083651</v>
+        <v>0.9573399675083665</v>
       </c>
       <c r="O6">
-        <v>0.5367995610863938</v>
+        <v>0.5367995610863918</v>
       </c>
       <c r="P6">
-        <v>0.8529812840931514</v>
+        <v>0.8529812840931494</v>
       </c>
       <c r="Q6">
-        <v>15.93288697196764</v>
+        <v>15.93288697196753</v>
       </c>
       <c r="R6">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481953</v>
       </c>
       <c r="S6">
         <v>162.0554462535385</v>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.008841381117427</v>
+        <v>1.10058586456423</v>
       </c>
       <c r="O2">
-        <v>1.100000023846549</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>1.053101869515388</v>
+        <v>1.100658898973186</v>
       </c>
       <c r="Q2">
-        <v>30.26900050251644</v>
+        <v>29.9780013314993</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>145.8294675110864</v>
+        <v>150.0154084486142</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6205164566724558</v>
+        <v>1.103191761356328</v>
       </c>
       <c r="O3">
-        <v>1.100000023851065</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P3">
-        <v>0.9557739657935721</v>
+        <v>1.103374424868827</v>
       </c>
       <c r="Q3">
-        <v>29.95003370230896</v>
+        <v>29.89336425017789</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999649</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>124.2310794791728</v>
+        <v>150.0901399990179</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>4.149668863933488</v>
+        <v>0.03283061164936781</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>47.91624871279616</v>
+        <v>0.3790952494684513</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3430,43 +3430,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.710336306063359</v>
+        <v>0.6936998532824739</v>
       </c>
       <c r="I4">
-        <v>1.927279909883023</v>
+        <v>-1166.453439823878</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686393</v>
+        <v>0.6277319161389405</v>
       </c>
       <c r="K4">
-        <v>2.898438697960029</v>
+        <v>2.898438697954364</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640384</v>
+        <v>0.6277319163804806</v>
       </c>
       <c r="M4">
-        <v>2.898438697959962</v>
+        <v>2.89843869796016</v>
       </c>
       <c r="N4">
-        <v>0.5034038628121399</v>
+        <v>1.10360461215677</v>
       </c>
       <c r="O4">
-        <v>1.100000023851065</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P4">
-        <v>0.8531457954306539</v>
+        <v>1.104639165405149</v>
       </c>
       <c r="Q4">
-        <v>41.61848094116257</v>
+        <v>29.82984840490117</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S4">
-        <v>116.1751351406227</v>
+        <v>150.0767009588633</v>
       </c>
       <c r="T4">
-        <v>4.149668863933488</v>
+        <v>0.03283061164936781</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5034038628239432</v>
+        <v>1.103604612156666</v>
       </c>
       <c r="O5">
-        <v>1.100000023851065</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P5">
-        <v>0.8531457954215864</v>
+        <v>1.104639165405107</v>
       </c>
       <c r="Q5">
-        <v>41.61848094186212</v>
+        <v>29.82984840490056</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999623</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S5">
-        <v>116.1751351412769</v>
+        <v>150.0767009588583</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5034038628239432</v>
+        <v>1.103604612156666</v>
       </c>
       <c r="O6">
-        <v>1.100000023851065</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P6">
-        <v>0.8531457954215866</v>
+        <v>1.104639165405107</v>
       </c>
       <c r="Q6">
-        <v>41.6184809418621</v>
+        <v>29.82984840490056</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999623</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>116.1751351412769</v>
+        <v>150.0767009588584</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.008841381117427</v>
+        <v>1.10058586456423</v>
       </c>
       <c r="O2">
-        <v>1.100000023846549</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>1.053101869515388</v>
+        <v>1.100658898973186</v>
       </c>
       <c r="Q2">
-        <v>30.26900050251644</v>
+        <v>29.9780013314993</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>145.8294675110864</v>
+        <v>150.0154084486142</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6205164566724558</v>
+        <v>1.103191761356328</v>
       </c>
       <c r="O3">
-        <v>1.100000023851065</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P3">
-        <v>0.9557739657935721</v>
+        <v>1.103374424868827</v>
       </c>
       <c r="Q3">
-        <v>29.95003370230896</v>
+        <v>29.89336425017789</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999649</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>124.2310794791728</v>
+        <v>150.0901399990179</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>4.149668863933488</v>
+        <v>0.03283061164936781</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>47.91624871279616</v>
+        <v>0.3790952494684513</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3815,43 +3815,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.710336306063359</v>
+        <v>0.6936998532824739</v>
       </c>
       <c r="I4">
-        <v>1.927279909883023</v>
+        <v>-1166.453439823878</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686393</v>
+        <v>0.6277319161389405</v>
       </c>
       <c r="K4">
-        <v>2.898438697960029</v>
+        <v>2.898438697954364</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640384</v>
+        <v>0.6277319163804806</v>
       </c>
       <c r="M4">
-        <v>2.898438697959962</v>
+        <v>2.89843869796016</v>
       </c>
       <c r="N4">
-        <v>0.5034038628121399</v>
+        <v>1.10360461215677</v>
       </c>
       <c r="O4">
-        <v>1.100000023851065</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P4">
-        <v>0.8531457954306539</v>
+        <v>1.104639165405149</v>
       </c>
       <c r="Q4">
-        <v>41.61848094116257</v>
+        <v>29.82984840490117</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S4">
-        <v>116.1751351406227</v>
+        <v>150.0767009588633</v>
       </c>
       <c r="T4">
-        <v>4.149668863933488</v>
+        <v>0.03283061164936781</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5034038628239432</v>
+        <v>1.103604612156666</v>
       </c>
       <c r="O5">
-        <v>1.100000023851065</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P5">
-        <v>0.8531457954215864</v>
+        <v>1.104639165405107</v>
       </c>
       <c r="Q5">
-        <v>41.61848094186212</v>
+        <v>29.82984840490056</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999623</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S5">
-        <v>116.1751351412769</v>
+        <v>150.0767009588583</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5034038628239432</v>
+        <v>1.103604612156666</v>
       </c>
       <c r="O6">
-        <v>1.100000023851065</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P6">
-        <v>0.8531457954215866</v>
+        <v>1.104639165405107</v>
       </c>
       <c r="Q6">
-        <v>41.6184809418621</v>
+        <v>29.82984840490056</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999623</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>116.1751351412769</v>
+        <v>150.0767009588584</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.072421885157207</v>
+        <v>1.1005878106273</v>
       </c>
       <c r="O2">
-        <v>1.10000002384333</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>1.088840652491753</v>
+        <v>1.100671326222024</v>
       </c>
       <c r="Q2">
-        <v>29.85570947025952</v>
+        <v>29.97731259052293</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>148.6719043459422</v>
+        <v>150.015151409155</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9563423932170226</v>
+        <v>1.103205754804898</v>
       </c>
       <c r="O3">
-        <v>1.100000023844969</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P3">
-        <v>1.055701893756256</v>
+        <v>1.103440948618535</v>
       </c>
       <c r="Q3">
-        <v>28.69119926086412</v>
+        <v>29.88978973643608</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>142.6230219342473</v>
+        <v>150.0889704148485</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.259702251153532</v>
+        <v>0.03325686813928817</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.54578867604538</v>
+        <v>0.3840172354524382</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4200,43 +4200,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.710336306063359</v>
+        <v>0.6936998532824739</v>
       </c>
       <c r="I4">
-        <v>1.927279909883023</v>
+        <v>-1166.453439823878</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686393</v>
+        <v>0.6277319161389405</v>
       </c>
       <c r="K4">
-        <v>2.898438697960029</v>
+        <v>2.898438697954364</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640384</v>
+        <v>0.6277319163804806</v>
       </c>
       <c r="M4">
-        <v>2.898438697959962</v>
+        <v>2.89843869796016</v>
       </c>
       <c r="N4">
-        <v>0.9132379569035873</v>
+        <v>1.103607771066391</v>
       </c>
       <c r="O4">
-        <v>1.100000023844968</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P4">
-        <v>1.016735453172992</v>
+        <v>1.104718568167371</v>
       </c>
       <c r="Q4">
-        <v>30.18757494985233</v>
+        <v>29.82517199418572</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>140.9316649134272</v>
+        <v>150.0744890621647</v>
       </c>
       <c r="T4">
-        <v>1.259702251153532</v>
+        <v>0.03325686813928817</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9132379569063165</v>
+        <v>1.103607771066285</v>
       </c>
       <c r="O5">
-        <v>1.100000023844969</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P5">
-        <v>1.016735453171173</v>
+        <v>1.104718568167326</v>
       </c>
       <c r="Q5">
-        <v>30.18757495003921</v>
+        <v>29.82517199418518</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>140.9316649136304</v>
+        <v>150.0744890621596</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9132379569063165</v>
+        <v>1.103607771066285</v>
       </c>
       <c r="O6">
-        <v>1.100000023844969</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P6">
-        <v>1.016735453171173</v>
+        <v>1.104718568167327</v>
       </c>
       <c r="Q6">
-        <v>30.18757495003921</v>
+        <v>29.82517199418517</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>140.9316649136304</v>
+        <v>150.0744890621596</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.072421885157207</v>
+        <v>1.1005878106273</v>
       </c>
       <c r="O2">
-        <v>1.10000002384333</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>1.088840652491753</v>
+        <v>1.100671326222024</v>
       </c>
       <c r="Q2">
-        <v>29.85570947025952</v>
+        <v>29.97731259052293</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>148.6719043459422</v>
+        <v>150.015151409155</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9563423932170226</v>
+        <v>1.103205754804898</v>
       </c>
       <c r="O3">
-        <v>1.100000023844969</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P3">
-        <v>1.055701893756256</v>
+        <v>1.103440948618535</v>
       </c>
       <c r="Q3">
-        <v>28.69119926086412</v>
+        <v>29.88978973643608</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>142.6230219342473</v>
+        <v>150.0889704148485</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.259702251153532</v>
+        <v>0.03325686813928817</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.54578867604538</v>
+        <v>0.3840172354524382</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4736,43 +4736,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.710336306063359</v>
+        <v>0.6936998532824739</v>
       </c>
       <c r="I4">
-        <v>1.927279909883023</v>
+        <v>-1166.453439823878</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686393</v>
+        <v>0.6277319161389405</v>
       </c>
       <c r="K4">
-        <v>2.898438697960029</v>
+        <v>2.898438697954364</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640384</v>
+        <v>0.6277319163804806</v>
       </c>
       <c r="M4">
-        <v>2.898438697959962</v>
+        <v>2.89843869796016</v>
       </c>
       <c r="N4">
-        <v>0.9132379569035873</v>
+        <v>1.103607771066391</v>
       </c>
       <c r="O4">
-        <v>1.100000023844968</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P4">
-        <v>1.016735453172992</v>
+        <v>1.104718568167371</v>
       </c>
       <c r="Q4">
-        <v>30.18757494985233</v>
+        <v>29.82517199418572</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>140.9316649134272</v>
+        <v>150.0744890621647</v>
       </c>
       <c r="T4">
-        <v>1.259702251153532</v>
+        <v>0.03325686813928817</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9132379569063165</v>
+        <v>1.103607771066285</v>
       </c>
       <c r="O5">
-        <v>1.100000023844969</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P5">
-        <v>1.016735453171173</v>
+        <v>1.104718568167326</v>
       </c>
       <c r="Q5">
-        <v>30.18757495003921</v>
+        <v>29.82517199418518</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>140.9316649136304</v>
+        <v>150.0744890621596</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9132379569063165</v>
+        <v>1.103607771066285</v>
       </c>
       <c r="O6">
-        <v>1.100000023844969</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P6">
-        <v>1.016735453171173</v>
+        <v>1.104718568167327</v>
       </c>
       <c r="Q6">
-        <v>30.18757495003921</v>
+        <v>29.82517199418517</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>140.9316649136304</v>
+        <v>150.0744890621596</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9315762385151353</v>
+        <v>1.000604725143168</v>
       </c>
       <c r="O2">
-        <v>0.9999999999960254</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="P2">
-        <v>0.9829290732874179</v>
+        <v>1.000681211761739</v>
       </c>
       <c r="Q2">
-        <v>28.94412678977996</v>
+        <v>29.97495059624447</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>146.0343981968766</v>
+        <v>150.01745730774</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6803584807295826</v>
+        <v>1.003033290468661</v>
       </c>
       <c r="O3">
-        <v>0.9999999999994649</v>
+        <v>0.9999999999999651</v>
       </c>
       <c r="P3">
-        <v>0.981561889478696</v>
+        <v>1.003215952720157</v>
       </c>
       <c r="Q3">
-        <v>21.53256466446077</v>
+        <v>29.88794025940239</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999663</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S3">
-        <v>130.1479748051958</v>
+        <v>150.0939137020949</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2.827910477242969</v>
+        <v>0.02985155847296952</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>32.65389750560783</v>
+        <v>0.3446961064019762</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5121,43 +5121,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.123704848942412</v>
+        <v>1.331747527271258</v>
       </c>
       <c r="I4">
-        <v>1.899834772653697</v>
+        <v>-1166.449803468128</v>
       </c>
       <c r="J4">
-        <v>1.113751880274941</v>
+        <v>1.113751880145042</v>
       </c>
       <c r="K4">
-        <v>3.006397543745565</v>
+        <v>3.006397543740269</v>
       </c>
       <c r="L4">
-        <v>1.113751880233368</v>
+        <v>1.113751880248559</v>
       </c>
       <c r="M4">
-        <v>3.006397543745534</v>
+        <v>3.006397543745132</v>
       </c>
       <c r="N4">
-        <v>0.546716607072593</v>
+        <v>1.003050405514111</v>
       </c>
       <c r="O4">
-        <v>0.9999999999994648</v>
+        <v>0.9999999999999651</v>
       </c>
       <c r="P4">
-        <v>0.8628254870246129</v>
+        <v>1.004720035452726</v>
       </c>
       <c r="Q4">
-        <v>30.46789040255431</v>
+        <v>29.78907019112849</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S4">
-        <v>123.1025137508452</v>
+        <v>150.0450237491731</v>
       </c>
       <c r="T4">
-        <v>2.827910477242969</v>
+        <v>0.02985155847296952</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5467166070851697</v>
+        <v>1.003050405513968</v>
       </c>
       <c r="O5">
-        <v>0.9999999999994647</v>
+        <v>0.999999999999965</v>
       </c>
       <c r="P5">
-        <v>0.8628254870180686</v>
+        <v>1.004720035452609</v>
       </c>
       <c r="Q5">
-        <v>30.46789040330151</v>
+        <v>29.78907019113144</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S5">
-        <v>123.1025137517013</v>
+        <v>150.0450237491674</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5467166070851698</v>
+        <v>1.003050405513968</v>
       </c>
       <c r="O6">
-        <v>0.9999999999994648</v>
+        <v>0.999999999999965</v>
       </c>
       <c r="P6">
-        <v>0.8628254870180688</v>
+        <v>1.004720035452609</v>
       </c>
       <c r="Q6">
-        <v>30.46789040330152</v>
+        <v>29.78907019113143</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S6">
-        <v>123.1025137517013</v>
+        <v>150.0450237491674</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9315762385151353</v>
+        <v>1.000604725143168</v>
       </c>
       <c r="O2">
-        <v>0.9999999999960254</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="P2">
-        <v>0.9829290732874179</v>
+        <v>1.000681211761739</v>
       </c>
       <c r="Q2">
-        <v>28.94412678977996</v>
+        <v>29.97495059624447</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>146.0343981968766</v>
+        <v>150.01745730774</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6803584807295826</v>
+        <v>1.003033290468661</v>
       </c>
       <c r="O3">
-        <v>0.9999999999994649</v>
+        <v>0.9999999999999651</v>
       </c>
       <c r="P3">
-        <v>0.981561889478696</v>
+        <v>1.003215952720157</v>
       </c>
       <c r="Q3">
-        <v>21.53256466446077</v>
+        <v>29.88794025940239</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999663</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S3">
-        <v>130.1479748051958</v>
+        <v>150.0939137020949</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2.827910477242969</v>
+        <v>0.02985155847296952</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>32.65389750560783</v>
+        <v>0.3446961064019762</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5506,43 +5506,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.123704848942412</v>
+        <v>1.331747527271258</v>
       </c>
       <c r="I4">
-        <v>1.899834772653697</v>
+        <v>-1166.449803468128</v>
       </c>
       <c r="J4">
-        <v>1.113751880274941</v>
+        <v>1.113751880145042</v>
       </c>
       <c r="K4">
-        <v>3.006397543745565</v>
+        <v>3.006397543740269</v>
       </c>
       <c r="L4">
-        <v>1.113751880233368</v>
+        <v>1.113751880248559</v>
       </c>
       <c r="M4">
-        <v>3.006397543745534</v>
+        <v>3.006397543745132</v>
       </c>
       <c r="N4">
-        <v>0.546716607072593</v>
+        <v>1.003050405514111</v>
       </c>
       <c r="O4">
-        <v>0.9999999999994648</v>
+        <v>0.9999999999999651</v>
       </c>
       <c r="P4">
-        <v>0.8628254870246129</v>
+        <v>1.004720035452726</v>
       </c>
       <c r="Q4">
-        <v>30.46789040255431</v>
+        <v>29.78907019112849</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S4">
-        <v>123.1025137508452</v>
+        <v>150.0450237491731</v>
       </c>
       <c r="T4">
-        <v>2.827910477242969</v>
+        <v>0.02985155847296952</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5467166070851697</v>
+        <v>1.003050405513968</v>
       </c>
       <c r="O5">
-        <v>0.9999999999994647</v>
+        <v>0.999999999999965</v>
       </c>
       <c r="P5">
-        <v>0.8628254870180686</v>
+        <v>1.004720035452609</v>
       </c>
       <c r="Q5">
-        <v>30.46789040330151</v>
+        <v>29.78907019113144</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S5">
-        <v>123.1025137517013</v>
+        <v>150.0450237491674</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5467166070851698</v>
+        <v>1.003050405513968</v>
       </c>
       <c r="O6">
-        <v>0.9999999999994648</v>
+        <v>0.999999999999965</v>
       </c>
       <c r="P6">
-        <v>0.8628254870180688</v>
+        <v>1.004720035452609</v>
       </c>
       <c r="Q6">
-        <v>30.46789040330152</v>
+        <v>29.78907019113143</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S6">
-        <v>123.1025137517013</v>
+        <v>150.0450237491674</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9745903692811407</v>
+        <v>1.000606698759299</v>
       </c>
       <c r="O2">
-        <v>0.9999999999986127</v>
+        <v>0.9999999999999981</v>
       </c>
       <c r="P2">
-        <v>0.9918839902680211</v>
+        <v>1.000694039896524</v>
       </c>
       <c r="Q2">
-        <v>29.70859732397739</v>
+        <v>29.97416740130709</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>148.5849329388886</v>
+        <v>150.0171630569548</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8789351752313439</v>
+        <v>1.003046365298154</v>
       </c>
       <c r="O3">
-        <v>0.9999999999998933</v>
+        <v>0.9999999999999659</v>
       </c>
       <c r="P3">
-        <v>0.9729665067432778</v>
+        <v>1.003279198156108</v>
       </c>
       <c r="Q3">
-        <v>28.02189561323558</v>
+        <v>29.88419470974697</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S3">
-        <v>142.8876525669326</v>
+        <v>150.0926749109879</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.036037688882167</v>
+        <v>0.03023865096454329</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.96313277133433</v>
+        <v>0.3491658654862042</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5891,43 +5891,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.123704848942412</v>
+        <v>1.331747527271258</v>
       </c>
       <c r="I4">
-        <v>1.899834772653697</v>
+        <v>-1166.449803468128</v>
       </c>
       <c r="J4">
-        <v>1.113751880274941</v>
+        <v>1.113751880145042</v>
       </c>
       <c r="K4">
-        <v>3.006397543745565</v>
+        <v>3.006397543740269</v>
       </c>
       <c r="L4">
-        <v>1.113751880233368</v>
+        <v>1.113751880248559</v>
       </c>
       <c r="M4">
-        <v>3.006397543745534</v>
+        <v>3.006397543745132</v>
       </c>
       <c r="N4">
-        <v>0.8343091358744507</v>
+        <v>1.003040807534433</v>
       </c>
       <c r="O4">
-        <v>0.9999999999998933</v>
+        <v>0.9999999999999658</v>
       </c>
       <c r="P4">
-        <v>0.9186095940373519</v>
+        <v>1.004791288827712</v>
       </c>
       <c r="Q4">
-        <v>30.71305554108391</v>
+        <v>29.78403834929005</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S4">
-        <v>141.3373910967655</v>
+        <v>150.0420198632008</v>
       </c>
       <c r="T4">
-        <v>1.036037688882167</v>
+        <v>0.03023865096454329</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8343091358791996</v>
+        <v>1.003040807534288</v>
       </c>
       <c r="O5">
-        <v>0.9999999999998933</v>
+        <v>0.9999999999999658</v>
       </c>
       <c r="P5">
-        <v>0.9186095940368296</v>
+        <v>1.004791288827593</v>
       </c>
       <c r="Q5">
-        <v>30.71305554124498</v>
+        <v>29.78403834929314</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S5">
-        <v>141.3373910970943</v>
+        <v>150.0420198631952</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8343091358791996</v>
+        <v>1.003040807534288</v>
       </c>
       <c r="O6">
-        <v>0.9999999999998933</v>
+        <v>0.9999999999999658</v>
       </c>
       <c r="P6">
-        <v>0.9186095940368296</v>
+        <v>1.004791288827593</v>
       </c>
       <c r="Q6">
-        <v>30.71305554124498</v>
+        <v>29.78403834929314</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S6">
-        <v>141.3373910970943</v>
+        <v>150.0420198631952</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9745903692811407</v>
+        <v>1.000606698759299</v>
       </c>
       <c r="O2">
-        <v>0.9999999999986127</v>
+        <v>0.9999999999999981</v>
       </c>
       <c r="P2">
-        <v>0.9918839902680211</v>
+        <v>1.000694039896524</v>
       </c>
       <c r="Q2">
-        <v>29.70859732397739</v>
+        <v>29.97416740130709</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>148.5849329388886</v>
+        <v>150.0171630569548</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8789351752313439</v>
+        <v>1.003046365298154</v>
       </c>
       <c r="O3">
-        <v>0.9999999999998933</v>
+        <v>0.9999999999999659</v>
       </c>
       <c r="P3">
-        <v>0.9729665067432778</v>
+        <v>1.003279198156108</v>
       </c>
       <c r="Q3">
-        <v>28.02189561323558</v>
+        <v>29.88419470974697</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S3">
-        <v>142.8876525669326</v>
+        <v>150.0926749109879</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.036037688882167</v>
+        <v>0.03023865096454329</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.96313277133433</v>
+        <v>0.3491658654862042</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6276,43 +6276,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.123704848942412</v>
+        <v>1.331747527271258</v>
       </c>
       <c r="I4">
-        <v>1.899834772653697</v>
+        <v>-1166.449803468128</v>
       </c>
       <c r="J4">
-        <v>1.113751880274941</v>
+        <v>1.113751880145042</v>
       </c>
       <c r="K4">
-        <v>3.006397543745565</v>
+        <v>3.006397543740269</v>
       </c>
       <c r="L4">
-        <v>1.113751880233368</v>
+        <v>1.113751880248559</v>
       </c>
       <c r="M4">
-        <v>3.006397543745534</v>
+        <v>3.006397543745132</v>
       </c>
       <c r="N4">
-        <v>0.8343091358744507</v>
+        <v>1.003040807534433</v>
       </c>
       <c r="O4">
-        <v>0.9999999999998933</v>
+        <v>0.9999999999999658</v>
       </c>
       <c r="P4">
-        <v>0.9186095940373519</v>
+        <v>1.004791288827712</v>
       </c>
       <c r="Q4">
-        <v>30.71305554108391</v>
+        <v>29.78403834929005</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S4">
-        <v>141.3373910967655</v>
+        <v>150.0420198632008</v>
       </c>
       <c r="T4">
-        <v>1.036037688882167</v>
+        <v>0.03023865096454329</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8343091358791996</v>
+        <v>1.003040807534288</v>
       </c>
       <c r="O5">
-        <v>0.9999999999998933</v>
+        <v>0.9999999999999658</v>
       </c>
       <c r="P5">
-        <v>0.9186095940368296</v>
+        <v>1.004791288827593</v>
       </c>
       <c r="Q5">
-        <v>30.71305554124498</v>
+        <v>29.78403834929314</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S5">
-        <v>141.3373910970943</v>
+        <v>150.0420198631952</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8343091358791996</v>
+        <v>1.003040807534288</v>
       </c>
       <c r="O6">
-        <v>0.9999999999998933</v>
+        <v>0.9999999999999658</v>
       </c>
       <c r="P6">
-        <v>0.9186095940368296</v>
+        <v>1.004791288827593</v>
       </c>
       <c r="Q6">
-        <v>30.71305554124498</v>
+        <v>29.78403834929314</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S6">
-        <v>141.3373910970943</v>
+        <v>150.0420198631952</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.032292139453094</v>
+        <v>1.070247205898866</v>
       </c>
       <c r="O2">
-        <v>0.9380319009589614</v>
+        <v>0.9380319009574348</v>
       </c>
       <c r="P2">
-        <v>1.041003781320416</v>
+        <v>1.053662666548736</v>
       </c>
       <c r="Q2">
-        <v>25.29428241033031</v>
+        <v>25.98458339953874</v>
       </c>
       <c r="R2">
-        <v>-91.1301995219891</v>
+        <v>-91.13019952201569</v>
       </c>
       <c r="S2">
-        <v>151.4962228704721</v>
+        <v>153.5728433849808</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8821023154576207</v>
+        <v>1.032542239983084</v>
       </c>
       <c r="O3">
-        <v>0.2917056037516268</v>
+        <v>0.2917056037512445</v>
       </c>
       <c r="P3">
-        <v>0.7912513657687517</v>
+        <v>0.8916281256360707</v>
       </c>
       <c r="Q3">
-        <v>-1.735498632830315</v>
+        <v>7.082388886357354</v>
       </c>
       <c r="R3">
-        <v>-119.1713773545973</v>
+        <v>-119.1713773550755</v>
       </c>
       <c r="S3">
-        <v>159.1656508482471</v>
+        <v>171.7852909748611</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6646,58 +6646,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.028755677772104</v>
+        <v>3.710900758048202</v>
       </c>
       <c r="D4">
-        <v>2.967247857112454</v>
+        <v>3.707425302393467</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>58.06706888501166</v>
+        <v>42.84979103190232</v>
       </c>
       <c r="G4">
-        <v>34.26282698112431</v>
+        <v>42.80965992674596</v>
       </c>
       <c r="H4">
-        <v>3.710336306063329</v>
+        <v>0.6936998532809447</v>
       </c>
       <c r="I4">
-        <v>1.927279909883212</v>
+        <v>-1166.453439823878</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570835</v>
+        <v>0.6277319164170524</v>
       </c>
       <c r="K4">
-        <v>2.898438697948319</v>
+        <v>2.898438698063386</v>
       </c>
       <c r="L4">
-        <v>0.62773191636387</v>
+        <v>0.6277319163554608</v>
       </c>
       <c r="M4">
-        <v>2.898438697960017</v>
+        <v>2.898438697974138</v>
       </c>
       <c r="N4">
-        <v>0.7582138091873555</v>
+        <v>0.9538128084112866</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7582138091921401</v>
+        <v>0.9538128084128897</v>
       </c>
       <c r="Q4">
-        <v>-12.54930673097704</v>
+        <v>-0.01547854148909552</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>167.4506932690481</v>
+        <v>179.9845214585296</v>
       </c>
       <c r="T4">
-        <v>3.626924435619909</v>
+        <v>0.0163540627885698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7582138091760323</v>
+        <v>0.9538128084023397</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7582138092016558</v>
+        <v>0.9538128084217943</v>
       </c>
       <c r="Q5">
-        <v>-12.5493067301093</v>
+        <v>-0.01547854101773646</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>167.4506932690487</v>
+        <v>179.9845214580564</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7582138091760324</v>
+        <v>0.9538128084023397</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7582138092016562</v>
+        <v>0.9538128084217943</v>
       </c>
       <c r="Q6">
-        <v>-12.5493067301093</v>
+        <v>-0.01547854101772951</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>167.4506932690487</v>
+        <v>179.9845214580564</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.032292139453094</v>
+        <v>1.070247205898866</v>
       </c>
       <c r="O2">
-        <v>0.9380319009589614</v>
+        <v>0.9380319009574348</v>
       </c>
       <c r="P2">
-        <v>1.041003781320416</v>
+        <v>1.053662666548736</v>
       </c>
       <c r="Q2">
-        <v>25.29428241033031</v>
+        <v>25.98458339953874</v>
       </c>
       <c r="R2">
-        <v>-91.1301995219891</v>
+        <v>-91.13019952201569</v>
       </c>
       <c r="S2">
-        <v>151.4962228704721</v>
+        <v>153.5728433849808</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8821023154576207</v>
+        <v>1.032542239983084</v>
       </c>
       <c r="O3">
-        <v>0.2917056037516268</v>
+        <v>0.2917056037512445</v>
       </c>
       <c r="P3">
-        <v>0.7912513657687517</v>
+        <v>0.8916281256360707</v>
       </c>
       <c r="Q3">
-        <v>-1.735498632830315</v>
+        <v>7.082388886357354</v>
       </c>
       <c r="R3">
-        <v>-119.1713773545973</v>
+        <v>-119.1713773550755</v>
       </c>
       <c r="S3">
-        <v>159.1656508482471</v>
+        <v>171.7852909748611</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7031,58 +7031,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.028755677772104</v>
+        <v>3.710900758048202</v>
       </c>
       <c r="D4">
-        <v>2.967247857112454</v>
+        <v>3.707425302393467</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>58.06706888501166</v>
+        <v>42.84979103190232</v>
       </c>
       <c r="G4">
-        <v>34.26282698112431</v>
+        <v>42.80965992674596</v>
       </c>
       <c r="H4">
-        <v>3.710336306063329</v>
+        <v>0.6936998532809447</v>
       </c>
       <c r="I4">
-        <v>1.927279909883212</v>
+        <v>-1166.453439823878</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570835</v>
+        <v>0.6277319164170524</v>
       </c>
       <c r="K4">
-        <v>2.898438697948319</v>
+        <v>2.898438698063386</v>
       </c>
       <c r="L4">
-        <v>0.62773191636387</v>
+        <v>0.6277319163554608</v>
       </c>
       <c r="M4">
-        <v>2.898438697960017</v>
+        <v>2.898438697974138</v>
       </c>
       <c r="N4">
-        <v>0.7582138091873555</v>
+        <v>0.9538128084112866</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7582138091921401</v>
+        <v>0.9538128084128897</v>
       </c>
       <c r="Q4">
-        <v>-12.54930673097704</v>
+        <v>-0.01547854148909552</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>167.4506932690481</v>
+        <v>179.9845214585296</v>
       </c>
       <c r="T4">
-        <v>3.626924435619909</v>
+        <v>0.0163540627885698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7582138091760323</v>
+        <v>0.9538128084023397</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7582138092016558</v>
+        <v>0.9538128084217943</v>
       </c>
       <c r="Q5">
-        <v>-12.5493067301093</v>
+        <v>-0.01547854101773646</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>167.4506932690487</v>
+        <v>179.9845214580564</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7582138091760324</v>
+        <v>0.9538128084023397</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7582138092016562</v>
+        <v>0.9538128084217943</v>
       </c>
       <c r="Q6">
-        <v>-12.5493067301093</v>
+        <v>-0.01547854101772951</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>167.4506932690487</v>
+        <v>179.9845214580564</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.087257234127736</v>
+        <v>1.100327012289238</v>
       </c>
       <c r="O2">
-        <v>1.056966443490333</v>
+        <v>1.05696644348969</v>
       </c>
       <c r="P2">
-        <v>1.074124990196347</v>
+        <v>1.078682348352523</v>
       </c>
       <c r="Q2">
-        <v>28.55256589357344</v>
+        <v>28.69500389633189</v>
       </c>
       <c r="R2">
-        <v>-91.3429255612722</v>
+        <v>-91.3429255612739</v>
       </c>
       <c r="S2">
-        <v>150.0035159659606</v>
+        <v>150.6714182604005</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.049437515040011</v>
+        <v>1.114967187748578</v>
       </c>
       <c r="O3">
-        <v>0.8910570420399747</v>
+        <v>0.8910570420388076</v>
       </c>
       <c r="P3">
-        <v>0.9642972528456938</v>
+        <v>0.9861336852008405</v>
       </c>
       <c r="Q3">
-        <v>21.90996173431423</v>
+        <v>23.2308999253278</v>
       </c>
       <c r="R3">
-        <v>-99.1686792048752</v>
+        <v>-99.16867920489062</v>
       </c>
       <c r="S3">
-        <v>149.5925019839606</v>
+        <v>153.5079949062633</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7416,58 +7416,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.382899294950233</v>
+        <v>1.139065608791368</v>
       </c>
       <c r="D4">
-        <v>1.176141842215308</v>
+        <v>1.129416319533489</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15.96834560403321</v>
+        <v>13.15279671720683</v>
       </c>
       <c r="G4">
-        <v>13.58091618416382</v>
+        <v>13.04137632219633</v>
       </c>
       <c r="H4">
-        <v>3.710336306063329</v>
+        <v>0.6936998532809447</v>
       </c>
       <c r="I4">
-        <v>1.927279909883212</v>
+        <v>-1166.453439823878</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570835</v>
+        <v>0.6277319164170524</v>
       </c>
       <c r="K4">
-        <v>2.898438697948319</v>
+        <v>2.898438698063386</v>
       </c>
       <c r="L4">
-        <v>0.62773191636387</v>
+        <v>0.6277319163554608</v>
       </c>
       <c r="M4">
-        <v>2.898438697960017</v>
+        <v>2.898438697974138</v>
       </c>
       <c r="N4">
-        <v>1.006496676850707</v>
+        <v>1.094081660475275</v>
       </c>
       <c r="O4">
-        <v>0.8020156209380076</v>
+        <v>0.8020156209369438</v>
       </c>
       <c r="P4">
-        <v>0.9269953121453623</v>
+        <v>0.9716688023243427</v>
       </c>
       <c r="Q4">
-        <v>20.04987189152942</v>
+        <v>21.1752885408086</v>
       </c>
       <c r="R4">
-        <v>-99.52967390014052</v>
+        <v>-99.52967390016396</v>
       </c>
       <c r="S4">
-        <v>151.2494214275798</v>
+        <v>155.9659370282187</v>
       </c>
       <c r="T4">
-        <v>1.202334286350296</v>
+        <v>0.0164595898291268</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.006496676848724</v>
+        <v>1.094081660472436</v>
       </c>
       <c r="O5">
-        <v>0.802015620939097</v>
+        <v>0.8020156209380331</v>
       </c>
       <c r="P5">
-        <v>0.9269953121482218</v>
+        <v>0.9716688023279478</v>
       </c>
       <c r="Q5">
-        <v>20.04987189175523</v>
+        <v>21.17528854092893</v>
       </c>
       <c r="R5">
-        <v>-99.52967389962667</v>
+        <v>-99.52967389965011</v>
       </c>
       <c r="S5">
-        <v>151.2494214277319</v>
+        <v>155.9659370282394</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.006496676848724</v>
+        <v>1.094081660472436</v>
       </c>
       <c r="O6">
-        <v>0.802015620939097</v>
+        <v>0.8020156209380331</v>
       </c>
       <c r="P6">
-        <v>0.9269953121482217</v>
+        <v>0.9716688023279475</v>
       </c>
       <c r="Q6">
-        <v>20.04987189175523</v>
+        <v>21.17528854092894</v>
       </c>
       <c r="R6">
-        <v>-99.52967389962669</v>
+        <v>-99.52967389965011</v>
       </c>
       <c r="S6">
-        <v>151.2494214277319</v>
+        <v>155.9659370282393</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.087257234127736</v>
+        <v>1.100327012289238</v>
       </c>
       <c r="O2">
-        <v>1.056966443490333</v>
+        <v>1.05696644348969</v>
       </c>
       <c r="P2">
-        <v>1.074124990196347</v>
+        <v>1.078682348352523</v>
       </c>
       <c r="Q2">
-        <v>28.55256589357344</v>
+        <v>28.69500389633189</v>
       </c>
       <c r="R2">
-        <v>-91.3429255612722</v>
+        <v>-91.3429255612739</v>
       </c>
       <c r="S2">
-        <v>150.0035159659606</v>
+        <v>150.6714182604005</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.049437515040011</v>
+        <v>1.114967187748578</v>
       </c>
       <c r="O3">
-        <v>0.8910570420399747</v>
+        <v>0.8910570420388076</v>
       </c>
       <c r="P3">
-        <v>0.9642972528456938</v>
+        <v>0.9861336852008405</v>
       </c>
       <c r="Q3">
-        <v>21.90996173431423</v>
+        <v>23.2308999253278</v>
       </c>
       <c r="R3">
-        <v>-99.1686792048752</v>
+        <v>-99.16867920489062</v>
       </c>
       <c r="S3">
-        <v>149.5925019839606</v>
+        <v>153.5079949062633</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7801,58 +7801,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.382899294950233</v>
+        <v>1.139065608791368</v>
       </c>
       <c r="D4">
-        <v>1.176141842215308</v>
+        <v>1.129416319533489</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15.96834560403321</v>
+        <v>13.15279671720683</v>
       </c>
       <c r="G4">
-        <v>13.58091618416382</v>
+        <v>13.04137632219633</v>
       </c>
       <c r="H4">
-        <v>3.710336306063329</v>
+        <v>0.6936998532809447</v>
       </c>
       <c r="I4">
-        <v>1.927279909883212</v>
+        <v>-1166.453439823878</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570835</v>
+        <v>0.6277319164170524</v>
       </c>
       <c r="K4">
-        <v>2.898438697948319</v>
+        <v>2.898438698063386</v>
       </c>
       <c r="L4">
-        <v>0.62773191636387</v>
+        <v>0.6277319163554608</v>
       </c>
       <c r="M4">
-        <v>2.898438697960017</v>
+        <v>2.898438697974138</v>
       </c>
       <c r="N4">
-        <v>1.006496676850707</v>
+        <v>1.094081660475275</v>
       </c>
       <c r="O4">
-        <v>0.8020156209380076</v>
+        <v>0.8020156209369438</v>
       </c>
       <c r="P4">
-        <v>0.9269953121453623</v>
+        <v>0.9716688023243427</v>
       </c>
       <c r="Q4">
-        <v>20.04987189152942</v>
+        <v>21.1752885408086</v>
       </c>
       <c r="R4">
-        <v>-99.52967390014052</v>
+        <v>-99.52967390016396</v>
       </c>
       <c r="S4">
-        <v>151.2494214275798</v>
+        <v>155.9659370282187</v>
       </c>
       <c r="T4">
-        <v>1.202334286350296</v>
+        <v>0.0164595898291268</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.006496676848724</v>
+        <v>1.094081660472436</v>
       </c>
       <c r="O5">
-        <v>0.802015620939097</v>
+        <v>0.8020156209380331</v>
       </c>
       <c r="P5">
-        <v>0.9269953121482218</v>
+        <v>0.9716688023279478</v>
       </c>
       <c r="Q5">
-        <v>20.04987189175523</v>
+        <v>21.17528854092893</v>
       </c>
       <c r="R5">
-        <v>-99.52967389962667</v>
+        <v>-99.52967389965011</v>
       </c>
       <c r="S5">
-        <v>151.2494214277319</v>
+        <v>155.9659370282394</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.006496676848724</v>
+        <v>1.094081660472436</v>
       </c>
       <c r="O6">
-        <v>0.802015620939097</v>
+        <v>0.8020156209380331</v>
       </c>
       <c r="P6">
-        <v>0.9269953121482217</v>
+        <v>0.9716688023279475</v>
       </c>
       <c r="Q6">
-        <v>20.04987189175523</v>
+        <v>21.17528854092894</v>
       </c>
       <c r="R6">
-        <v>-99.52967389962669</v>
+        <v>-99.52967389965011</v>
       </c>
       <c r="S6">
-        <v>151.2494214277319</v>
+        <v>155.9659370282393</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9611419285450806</v>
+        <v>0.982355474268367</v>
       </c>
       <c r="O2">
-        <v>0.85000495253985</v>
+        <v>0.8500049525413969</v>
       </c>
       <c r="P2">
-        <v>0.9458756563643438</v>
+        <v>0.9470335298262953</v>
       </c>
       <c r="Q2">
-        <v>24.73345316391018</v>
+        <v>25.60427350591844</v>
       </c>
       <c r="R2">
-        <v>-92.653816313322</v>
+        <v>-92.65381631331452</v>
       </c>
       <c r="S2">
-        <v>151.8013923806424</v>
+        <v>153.3646348328429</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9246297358863549</v>
+        <v>0.990953104216677</v>
       </c>
       <c r="O3">
-        <v>0.3617201835032798</v>
+        <v>0.3617201835029494</v>
       </c>
       <c r="P3">
-        <v>0.7402472831588612</v>
+        <v>0.765862548409544</v>
       </c>
       <c r="Q3">
-        <v>1.791459681166134</v>
+        <v>8.140989010114771</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241743</v>
+        <v>-129.0915432241854</v>
       </c>
       <c r="S3">
-        <v>160.1103128436978</v>
+        <v>169.4353483607935</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8186,58 +8186,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.924272628164359</v>
+        <v>3.12168739474272</v>
       </c>
       <c r="D4">
-        <v>2.486557303604271</v>
+        <v>3.116499817557538</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>45.31359716488345</v>
+        <v>36.04614115361142</v>
       </c>
       <c r="G4">
-        <v>28.71229057182712</v>
+        <v>35.98624017192529</v>
       </c>
       <c r="H4">
-        <v>7.123704848942343</v>
+        <v>1.331747527271622</v>
       </c>
       <c r="I4">
-        <v>1.899834772653904</v>
+        <v>-1166.449803468124</v>
       </c>
       <c r="J4">
-        <v>1.11375188024611</v>
+        <v>1.113751880306457</v>
       </c>
       <c r="K4">
-        <v>3.006397543768157</v>
+        <v>3.006397543883271</v>
       </c>
       <c r="L4">
-        <v>1.113751880233069</v>
+        <v>1.113751880225838</v>
       </c>
       <c r="M4">
-        <v>3.006397543745586</v>
+        <v>3.00639754375882</v>
       </c>
       <c r="N4">
-        <v>0.760047019778102</v>
+        <v>0.8671423126394475</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7600470197788223</v>
+        <v>0.8671423126398589</v>
       </c>
       <c r="Q4">
-        <v>-8.963916715472278</v>
+        <v>-0.02747328595537209</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>171.0360832840942</v>
+        <v>179.9725267136936</v>
       </c>
       <c r="T4">
-        <v>2.061790537590074</v>
+        <v>0.01486805081361538</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7600470197683796</v>
+        <v>0.8671423126312912</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7600470197894045</v>
+        <v>0.8671423126479404</v>
       </c>
       <c r="Q5">
-        <v>-8.963916714149354</v>
+        <v>-0.02747328504900927</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>171.0360832835632</v>
+        <v>179.9725267127863</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7600470197683796</v>
+        <v>0.8671423126312912</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7600470197894045</v>
+        <v>0.8671423126479404</v>
       </c>
       <c r="Q6">
-        <v>-8.963916714149358</v>
+        <v>-0.02747328504900734</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>171.0360832835632</v>
+        <v>179.9725267127864</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9611419285450806</v>
+        <v>0.982355474268367</v>
       </c>
       <c r="O2">
-        <v>0.85000495253985</v>
+        <v>0.8500049525413969</v>
       </c>
       <c r="P2">
-        <v>0.9458756563643438</v>
+        <v>0.9470335298262953</v>
       </c>
       <c r="Q2">
-        <v>24.73345316391018</v>
+        <v>25.60427350591844</v>
       </c>
       <c r="R2">
-        <v>-92.653816313322</v>
+        <v>-92.65381631331452</v>
       </c>
       <c r="S2">
-        <v>151.8013923806424</v>
+        <v>153.3646348328429</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9246297358863549</v>
+        <v>0.990953104216677</v>
       </c>
       <c r="O3">
-        <v>0.3617201835032798</v>
+        <v>0.3617201835029494</v>
       </c>
       <c r="P3">
-        <v>0.7402472831588612</v>
+        <v>0.765862548409544</v>
       </c>
       <c r="Q3">
-        <v>1.791459681166134</v>
+        <v>8.140989010114771</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241743</v>
+        <v>-129.0915432241854</v>
       </c>
       <c r="S3">
-        <v>160.1103128436978</v>
+        <v>169.4353483607935</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8722,58 +8722,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.924272628164359</v>
+        <v>3.12168739474272</v>
       </c>
       <c r="D4">
-        <v>2.486557303604271</v>
+        <v>3.116499817557538</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>45.31359716488345</v>
+        <v>36.04614115361142</v>
       </c>
       <c r="G4">
-        <v>28.71229057182712</v>
+        <v>35.98624017192529</v>
       </c>
       <c r="H4">
-        <v>7.123704848942343</v>
+        <v>1.331747527271622</v>
       </c>
       <c r="I4">
-        <v>1.899834772653904</v>
+        <v>-1166.449803468124</v>
       </c>
       <c r="J4">
-        <v>1.11375188024611</v>
+        <v>1.113751880306457</v>
       </c>
       <c r="K4">
-        <v>3.006397543768157</v>
+        <v>3.006397543883271</v>
       </c>
       <c r="L4">
-        <v>1.113751880233069</v>
+        <v>1.113751880225838</v>
       </c>
       <c r="M4">
-        <v>3.006397543745586</v>
+        <v>3.00639754375882</v>
       </c>
       <c r="N4">
-        <v>0.760047019778102</v>
+        <v>0.8671423126394475</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7600470197788223</v>
+        <v>0.8671423126398589</v>
       </c>
       <c r="Q4">
-        <v>-8.963916715472278</v>
+        <v>-0.02747328595537209</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>171.0360832840942</v>
+        <v>179.9725267136936</v>
       </c>
       <c r="T4">
-        <v>2.061790537590074</v>
+        <v>0.01486805081361538</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7600470197683796</v>
+        <v>0.8671423126312912</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7600470197894045</v>
+        <v>0.8671423126479404</v>
       </c>
       <c r="Q5">
-        <v>-8.963916714149354</v>
+        <v>-0.02747328504900927</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>171.0360832835632</v>
+        <v>179.9725267127863</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7600470197683796</v>
+        <v>0.8671423126312912</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7600470197894045</v>
+        <v>0.8671423126479404</v>
       </c>
       <c r="Q6">
-        <v>-8.963916714149358</v>
+        <v>-0.02747328504900734</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>171.0360832835632</v>
+        <v>179.9725267127864</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9901483868791067</v>
+        <v>1.001177871366318</v>
       </c>
       <c r="O2">
-        <v>0.9581045791304476</v>
+        <v>0.9581045791311117</v>
       </c>
       <c r="P2">
-        <v>0.9758694176973373</v>
+        <v>0.9784014150630842</v>
       </c>
       <c r="Q2">
-        <v>28.35048351924262</v>
+        <v>28.57389128019658</v>
       </c>
       <c r="R2">
-        <v>-91.5578997189799</v>
+        <v>-91.55789971897856</v>
       </c>
       <c r="S2">
-        <v>150.0250759807749</v>
+        <v>150.6944362730774</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9678025272723435</v>
+        <v>1.017576251814173</v>
       </c>
       <c r="O3">
-        <v>0.8139299031202679</v>
+        <v>0.813929903120257</v>
       </c>
       <c r="P3">
-        <v>0.8833079219692234</v>
+        <v>0.8938183708149909</v>
       </c>
       <c r="Q3">
-        <v>21.66497180279574</v>
+        <v>23.21756905621025</v>
       </c>
       <c r="R3">
-        <v>-99.65273561736716</v>
+        <v>-99.65273561736534</v>
       </c>
       <c r="S3">
-        <v>149.7404779549133</v>
+        <v>153.3255340609569</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9107,58 +9107,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.211720923335146</v>
+        <v>0.9972857517830365</v>
       </c>
       <c r="D4">
-        <v>0.9653782396771062</v>
+        <v>0.9881081503152659</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13.99174802540498</v>
+        <v>11.51566394501829</v>
       </c>
       <c r="G4">
-        <v>11.14722773094769</v>
+        <v>11.40969013145964</v>
       </c>
       <c r="H4">
-        <v>7.123704848942343</v>
+        <v>1.331747527271622</v>
       </c>
       <c r="I4">
-        <v>1.899834772653904</v>
+        <v>-1166.449803468124</v>
       </c>
       <c r="J4">
-        <v>1.11375188024611</v>
+        <v>1.113751880306457</v>
       </c>
       <c r="K4">
-        <v>3.006397543768157</v>
+        <v>3.006397543883271</v>
       </c>
       <c r="L4">
-        <v>1.113751880233069</v>
+        <v>1.113751880225838</v>
       </c>
       <c r="M4">
-        <v>3.006397543745586</v>
+        <v>3.00639754375882</v>
       </c>
       <c r="N4">
-        <v>0.9045148442244564</v>
+        <v>0.9775923859669461</v>
       </c>
       <c r="O4">
-        <v>0.7019303077933668</v>
+        <v>0.7019303077933162</v>
       </c>
       <c r="P4">
-        <v>0.8519908784415503</v>
+        <v>0.8913771806766543</v>
       </c>
       <c r="Q4">
-        <v>19.79601272016656</v>
+        <v>20.81746814449216</v>
       </c>
       <c r="R4">
-        <v>-97.63434507042335</v>
+        <v>-97.63434507041639</v>
       </c>
       <c r="S4">
-        <v>152.8052215469075</v>
+        <v>157.000616066024</v>
       </c>
       <c r="T4">
-        <v>0.9267125915974834</v>
+        <v>0.01496391990807723</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9045148442237695</v>
+        <v>0.9775923859646203</v>
       </c>
       <c r="O5">
-        <v>0.7019303077991519</v>
+        <v>0.7019303077991011</v>
       </c>
       <c r="P5">
-        <v>0.8519908784463752</v>
+        <v>0.8913771806814094</v>
       </c>
       <c r="Q5">
-        <v>19.79601272055654</v>
+        <v>20.81746814475808</v>
       </c>
       <c r="R5">
-        <v>-97.63434506974261</v>
+        <v>-97.63434506973563</v>
       </c>
       <c r="S5">
-        <v>152.8052215469773</v>
+        <v>157.0006160659144</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9045148442237695</v>
+        <v>0.9775923859646203</v>
       </c>
       <c r="O6">
-        <v>0.7019303077991519</v>
+        <v>0.7019303077991011</v>
       </c>
       <c r="P6">
-        <v>0.8519908784463752</v>
+        <v>0.8913771806814091</v>
       </c>
       <c r="Q6">
-        <v>19.79601272055654</v>
+        <v>20.81746814475808</v>
       </c>
       <c r="R6">
-        <v>-97.63434506974261</v>
+        <v>-97.63434506973564</v>
       </c>
       <c r="S6">
-        <v>152.8052215469773</v>
+        <v>157.0006160659144</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9901483868791067</v>
+        <v>1.001177871366318</v>
       </c>
       <c r="O2">
-        <v>0.9581045791304476</v>
+        <v>0.9581045791311117</v>
       </c>
       <c r="P2">
-        <v>0.9758694176973373</v>
+        <v>0.9784014150630842</v>
       </c>
       <c r="Q2">
-        <v>28.35048351924262</v>
+        <v>28.57389128019658</v>
       </c>
       <c r="R2">
-        <v>-91.5578997189799</v>
+        <v>-91.55789971897856</v>
       </c>
       <c r="S2">
-        <v>150.0250759807749</v>
+        <v>150.6944362730774</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9678025272723435</v>
+        <v>1.017576251814173</v>
       </c>
       <c r="O3">
-        <v>0.8139299031202679</v>
+        <v>0.813929903120257</v>
       </c>
       <c r="P3">
-        <v>0.8833079219692234</v>
+        <v>0.8938183708149909</v>
       </c>
       <c r="Q3">
-        <v>21.66497180279574</v>
+        <v>23.21756905621025</v>
       </c>
       <c r="R3">
-        <v>-99.65273561736716</v>
+        <v>-99.65273561736534</v>
       </c>
       <c r="S3">
-        <v>149.7404779549133</v>
+        <v>153.3255340609569</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9492,58 +9492,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.211720923335146</v>
+        <v>0.9972857517830365</v>
       </c>
       <c r="D4">
-        <v>0.9653782396771062</v>
+        <v>0.9881081503152659</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13.99174802540498</v>
+        <v>11.51566394501829</v>
       </c>
       <c r="G4">
-        <v>11.14722773094769</v>
+        <v>11.40969013145964</v>
       </c>
       <c r="H4">
-        <v>7.123704848942343</v>
+        <v>1.331747527271622</v>
       </c>
       <c r="I4">
-        <v>1.899834772653904</v>
+        <v>-1166.449803468124</v>
       </c>
       <c r="J4">
-        <v>1.11375188024611</v>
+        <v>1.113751880306457</v>
       </c>
       <c r="K4">
-        <v>3.006397543768157</v>
+        <v>3.006397543883271</v>
       </c>
       <c r="L4">
-        <v>1.113751880233069</v>
+        <v>1.113751880225838</v>
       </c>
       <c r="M4">
-        <v>3.006397543745586</v>
+        <v>3.00639754375882</v>
       </c>
       <c r="N4">
-        <v>0.9045148442244564</v>
+        <v>0.9775923859669461</v>
       </c>
       <c r="O4">
-        <v>0.7019303077933668</v>
+        <v>0.7019303077933162</v>
       </c>
       <c r="P4">
-        <v>0.8519908784415503</v>
+        <v>0.8913771806766543</v>
       </c>
       <c r="Q4">
-        <v>19.79601272016656</v>
+        <v>20.81746814449216</v>
       </c>
       <c r="R4">
-        <v>-97.63434507042335</v>
+        <v>-97.63434507041639</v>
       </c>
       <c r="S4">
-        <v>152.8052215469075</v>
+        <v>157.000616066024</v>
       </c>
       <c r="T4">
-        <v>0.9267125915974834</v>
+        <v>0.01496391990807723</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9045148442237695</v>
+        <v>0.9775923859646203</v>
       </c>
       <c r="O5">
-        <v>0.7019303077991519</v>
+        <v>0.7019303077991011</v>
       </c>
       <c r="P5">
-        <v>0.8519908784463752</v>
+        <v>0.8913771806814094</v>
       </c>
       <c r="Q5">
-        <v>19.79601272055654</v>
+        <v>20.81746814475808</v>
       </c>
       <c r="R5">
-        <v>-97.63434506974261</v>
+        <v>-97.63434506973563</v>
       </c>
       <c r="S5">
-        <v>152.8052215469773</v>
+        <v>157.0006160659144</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9045148442237695</v>
+        <v>0.9775923859646203</v>
       </c>
       <c r="O6">
-        <v>0.7019303077991519</v>
+        <v>0.7019303077991011</v>
       </c>
       <c r="P6">
-        <v>0.8519908784463752</v>
+        <v>0.8913771806814091</v>
       </c>
       <c r="Q6">
-        <v>19.79601272055654</v>
+        <v>20.81746814475808</v>
       </c>
       <c r="R6">
-        <v>-97.63434506974261</v>
+        <v>-97.63434506973564</v>
       </c>
       <c r="S6">
-        <v>152.8052215469773</v>
+        <v>157.0006160659144</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10541,16 +10541,16 @@
         <v>1.070094227532346</v>
       </c>
       <c r="O2">
-        <v>0.9380319009574459</v>
+        <v>0.938031900957445</v>
       </c>
       <c r="P2">
         <v>1.053494350468705</v>
       </c>
       <c r="Q2">
-        <v>25.98965116739707</v>
+        <v>25.98965116739706</v>
       </c>
       <c r="R2">
-        <v>-91.13019952201601</v>
+        <v>-91.13019952201603</v>
       </c>
       <c r="S2">
         <v>153.5693903185486</v>
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.031611214669994</v>
+        <v>1.031611214669993</v>
       </c>
       <c r="O3">
-        <v>0.2917056037512945</v>
+        <v>0.291705603751292</v>
       </c>
       <c r="P3">
-        <v>0.8906876332644389</v>
+        <v>0.8906876332644372</v>
       </c>
       <c r="Q3">
-        <v>7.091324389062537</v>
+        <v>7.09132438906246</v>
       </c>
       <c r="R3">
-        <v>-119.1713773550799</v>
+        <v>-119.1713773550804</v>
       </c>
       <c r="S3">
-        <v>171.7794727726615</v>
+        <v>171.7794727726616</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10623,55 +10623,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.709154423937069</v>
+        <v>3.709154423937083</v>
       </c>
       <c r="D4">
-        <v>3.709154423937069</v>
+        <v>3.709154423937083</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.82962610251916</v>
+        <v>42.82962610251932</v>
       </c>
       <c r="G4">
-        <v>42.82962610251916</v>
+        <v>42.82962610251932</v>
       </c>
       <c r="H4">
-        <v>3.710336306063329</v>
+        <v>0.6936998532809447</v>
       </c>
       <c r="I4">
-        <v>1.927279909883212</v>
+        <v>-1166.453439823878</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570835</v>
+        <v>0.6277319164170524</v>
       </c>
       <c r="K4">
-        <v>2.898438697948319</v>
+        <v>2.898438698063386</v>
       </c>
       <c r="L4">
-        <v>0.62773191636387</v>
+        <v>0.6277319163554608</v>
       </c>
       <c r="M4">
-        <v>2.898438697960017</v>
+        <v>2.898438697974138</v>
       </c>
       <c r="N4">
-        <v>0.9526279648032097</v>
+        <v>0.9526279648032094</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.952627964804756</v>
+        <v>0.952627964804755</v>
       </c>
       <c r="Q4">
-        <v>-1.252526497616222E-11</v>
+        <v>-1.263596013510463E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999811</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647942861</v>
+        <v>0.9526279647942857</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.95262796481368</v>
+        <v>0.952627964813679</v>
       </c>
       <c r="Q5">
-        <v>4.605107299026295E-10</v>
+        <v>4.603961942809936E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999995311</v>
+        <v>179.9999999995313</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647942861</v>
+        <v>0.9526279647942856</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648136798</v>
+        <v>0.9526279648136788</v>
       </c>
       <c r="Q6">
-        <v>4.605030469222368E-10</v>
+        <v>4.603950607216524E-10</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999995311</v>
+        <v>179.9999999995313</v>
       </c>
     </row>
   </sheetData>
